--- a/medicine/Pharmacie/Flibansérine/Flibansérine.xlsx
+++ b/medicine/Pharmacie/Flibansérine/Flibansérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flibans%C3%A9rine</t>
+          <t>Flibansérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La flibansérine (selon les nomenclatures DCI et USAN, flibanserin), vendue sous la marque commerciale Addyi[note 1], est un médicament approuvé aux États-Unis comme traitement du trouble du désir sexuel hypoactif (DSH) (hypoactive sexual desire disorder, HSDD) chez les femmes qui n'ont pas encore vécu la ménopause[2],[3]. Il est surnommé le « Viagra pour femmes »[4] ou « Viagra rose »[5].
-La mise au point de la flibansérine commence chez Boehringer-Ingelheim mais est arrêtée en octobre 2010 à la suite d'une évaluation négative de la Food and Drug Administration (FDA)[6]. La société Sprout Pharmaceuticals acquiert ensuite les droits sur le produit et parviendra à obtenir l'approbation de la FDA en août 2015 après une « intense campagne de lobbying »[7]. Le produit ne peut être obtenu que sur ordonnance à cause d'« effets néfastes graves » s'il est, par exemple, absorbé en même temps que de l'alcool[4].
-Le HSDD est reconnu comme un trouble sexuel distinct depuis les années 1980, mais a été retiré du Manuel diagnostique et statistique des troubles mentaux (DSM) en 2013 pour être remplacé par le diagnostic appelé « désordre de l'éveil sexuel féminin » (Female sexual arousal disorder, FSAD)[8],[9].
+La flibansérine (selon les nomenclatures DCI et USAN, flibanserin), vendue sous la marque commerciale Addyi[note 1], est un médicament approuvé aux États-Unis comme traitement du trouble du désir sexuel hypoactif (DSH) (hypoactive sexual desire disorder, HSDD) chez les femmes qui n'ont pas encore vécu la ménopause,. Il est surnommé le « Viagra pour femmes » ou « Viagra rose ».
+La mise au point de la flibansérine commence chez Boehringer-Ingelheim mais est arrêtée en octobre 2010 à la suite d'une évaluation négative de la Food and Drug Administration (FDA). La société Sprout Pharmaceuticals acquiert ensuite les droits sur le produit et parviendra à obtenir l'approbation de la FDA en août 2015 après une « intense campagne de lobbying ». Le produit ne peut être obtenu que sur ordonnance à cause d'« effets néfastes graves » s'il est, par exemple, absorbé en même temps que de l'alcool.
+Le HSDD est reconnu comme un trouble sexuel distinct depuis les années 1980, mais a été retiré du Manuel diagnostique et statistique des troubles mentaux (DSM) en 2013 pour être remplacé par le diagnostic appelé « désordre de l'éveil sexuel féminin » (Female sexual arousal disorder, FSAD),.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flibans%C3%A9rine</t>
+          <t>Flibansérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La flibansérine ne possède aucune similitude avec le sildénafil (Viagra) en termes de mode d'action[note 2].
-La flibansérine est un psychotrope développé initialement comme antidépresseur[10]. Lors des essais cliniques de phase 2, l'effet antidépresseur s'est avéré très insuffisant mais à la question : « De quelle intensité est votre libido ?[trad 1] », la flibansérine s'est avérée plus efficace que le placebo[11]. Elle agit comme agoniste des récepteurs sérotoninergiques de sous-type 5-HT1A (Ki = 1 nM) et antagoniste ou agoniste partiel des récepteurs dopaminergiques de type D4 (Ki = 4–24 nM)[12],[13],[14]. Son mode d'action passe donc par l'augmentation des taux de dopamine et de noradrénaline et une diminution des taux de sérotonine dans le cerveau[10].
+La flibansérine est un psychotrope développé initialement comme antidépresseur. Lors des essais cliniques de phase 2, l'effet antidépresseur s'est avéré très insuffisant mais à la question : « De quelle intensité est votre libido ?[trad 1] », la flibansérine s'est avérée plus efficace que le placebo. Elle agit comme agoniste des récepteurs sérotoninergiques de sous-type 5-HT1A (Ki = 1 nM) et antagoniste ou agoniste partiel des récepteurs dopaminergiques de type D4 (Ki = 4–24 nM). Son mode d'action passe donc par l'augmentation des taux de dopamine et de noradrénaline et une diminution des taux de sérotonine dans le cerveau.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flibans%C3%A9rine</t>
+          <t>Flibansérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours des études cliniques, les effets indésirables rapportés sont[15] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours des études cliniques, les effets indésirables rapportés sont :
 Fréquents (&gt; 10 %) : étourdissements, fatigue et nausées.
 Peu fréquents (de 1 à 10 %) : insomnie, anxiété, sécheresse de la bouche, douleurs abdominales voire appendicite, constipation, mictions nocturnes, palpitations.
 Le risque de syncope due à l'hypotension orthostatique peut être augmenté avec la flibansérine. De même, le risque d'accidents et de blessures peut être majoré en raison des effets sédatifs du produit.
